--- a/harvest-calc.xlsx
+++ b/harvest-calc.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mburnham/Google Drive/Projects/screeps-ai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D321A875-3720-214A-91E3-EA8347E55A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CDA7CB-7CC2-5C4B-AC6A-81A20E6CB426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{702EDD4F-ACD3-0341-9AE5-54C1547781D7}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="19540" activeTab="1" xr2:uid="{702EDD4F-ACD3-0341-9AE5-54C1547781D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Remote harvest" sheetId="1" r:id="rId1"/>
+    <sheet name="Guard body" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>work</t>
   </si>
@@ -154,6 +155,30 @@
   </si>
   <si>
     <t>RCL</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -219,7 +244,66 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -276,20 +360,20 @@
     <tableColumn id="4" xr3:uid="{767E2E8C-26BD-0842-BE84-CE4A0FA3A75E}" name="capacity">
       <calculatedColumnFormula>Importers[[#This Row],[carry]]*50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{848D97A5-7ABC-9148-B57F-5E1CDFF8B768}" name="ticks to fill" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{848D97A5-7ABC-9148-B57F-5E1CDFF8B768}" name="ticks to fill" dataDxfId="18">
       <calculatedColumnFormula>Importers[[#This Row],[capacity]]/(Importers[[#This Row],[work]]*2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{F60BAB4A-6A2F-8C41-A44D-9F8E59F9160E}" name="distance"/>
     <tableColumn id="8" xr3:uid="{2727517D-38BA-0949-9891-1A46B0AF0CBA}" name="cost">
       <calculatedColumnFormula>Importers[[#This Row],[work]]*100+Importers[[#This Row],[carry]]*50+Importers[[#This Row],[move]]*50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0F5622C9-6A8D-764F-BC14-9384F63ADEE8}" name="net" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{0F5622C9-6A8D-764F-BC14-9384F63ADEE8}" name="net" dataDxfId="17">
       <calculatedColumnFormula array="1">Constants[lifespan]/(Importers[[#This Row],[ticks to fill]]+Importers[[#This Row],[distance]]*2)*Importers[[#This Row],[capacity]]-Importers[[#This Row],[cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CDA39E9D-D698-7345-8299-ED1F11A8A2BB}" name="ticks to empty source" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{CDA39E9D-D698-7345-8299-ED1F11A8A2BB}" name="ticks to empty source" dataDxfId="16">
       <calculatedColumnFormula array="1">(Constants[source total]/Importers[[#This Row],[capacity]])*(Importers[[#This Row],[ticks to fill]]+Importers[[#This Row],[distance]]*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B5B90B66-A1D4-4944-908B-6366CF1A0AB5}" name="number needed" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{B5B90B66-A1D4-4944-908B-6366CF1A0AB5}" name="number needed" dataDxfId="15">
       <calculatedColumnFormula array="1">Importers[[#This Row],[ticks to empty source]]/Constants[regen time]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{163841DE-D1BC-314B-972D-20EB34B2EDF1}" name="roi" dataCellStyle="Percent">
@@ -322,20 +406,20 @@
     <tableColumn id="4" xr3:uid="{6AE2C099-8599-3549-8DDA-FBF0625BEC16}" name="capacity">
       <calculatedColumnFormula>Importers4[[#This Row],[carry]]*50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{62C5912D-8FA5-5148-A8EE-0AD120D9F4C1}" name="ticks to fill" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{62C5912D-8FA5-5148-A8EE-0AD120D9F4C1}" name="ticks to fill" dataDxfId="14">
       <calculatedColumnFormula>Importers4[[#This Row],[capacity]]/(Importers4[[#This Row],[work]]*2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{8B979FEB-92C5-9F47-ABCF-CA652C6E18C4}" name="distance"/>
     <tableColumn id="8" xr3:uid="{A73A7063-BACE-0748-81EB-0ED5DCF0D417}" name="cost">
       <calculatedColumnFormula>Importers4[[#This Row],[work]]*100+Importers4[[#This Row],[carry]]*50+Importers4[[#This Row],[move]]*50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CE37062C-9D8D-3D44-890E-8D0C627D0043}" name="net" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{CE37062C-9D8D-3D44-890E-8D0C627D0043}" name="net" dataDxfId="13">
       <calculatedColumnFormula array="1">Constants[lifespan]/(Importers4[[#This Row],[ticks to fill]]+Importers4[[#This Row],[distance]]*2)*Importers4[[#This Row],[capacity]]-Importers4[[#This Row],[cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D01F9FBD-CFF2-B448-90B6-16634F761C51}" name="ticks to empty source" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{D01F9FBD-CFF2-B448-90B6-16634F761C51}" name="ticks to empty source" dataDxfId="12">
       <calculatedColumnFormula array="1">(Constants[source total]/Importers4[[#This Row],[capacity]])*(Importers4[[#This Row],[ticks to fill]]+Importers4[[#This Row],[distance]]*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{70A10B50-45AF-9E44-8346-534DC3ED4319}" name="number needed" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{70A10B50-45AF-9E44-8346-534DC3ED4319}" name="number needed" dataDxfId="11">
       <calculatedColumnFormula array="1">Importers4[[#This Row],[ticks to empty source]]/Constants[regen time]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{B5243EE0-2AB8-924A-9191-CDF14F5FFDDF}" name="roi" dataCellStyle="Percent">
@@ -358,7 +442,7 @@
     <tableColumn id="4" xr3:uid="{41C77192-AD67-7C44-AE92-A2D8A6C07D56}" name="capacity">
       <calculatedColumnFormula>Table4[[#This Row],[hauler carry]]*50</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{21E1513C-3431-F942-BF49-A6BC4E3343C8}" name="cost" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{21E1513C-3431-F942-BF49-A6BC4E3343C8}" name="cost" dataDxfId="10">
       <calculatedColumnFormula>Table4[[#This Row],[work]]*100+Table4[[#This Row],[carry]]*50+Table4[[#This Row],[move]]*50+Table4[[#This Row],[hauler carry]]*50+Table4[[#This Row],[hauler move]]*50</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{91D94484-9E4D-2C48-836E-E88AE711EF0A}" name="distance"/>
@@ -368,13 +452,13 @@
     <tableColumn id="9" xr3:uid="{1CAB91AD-2C34-8345-9830-72568B5A868B}" name="ticks to empty source">
       <calculatedColumnFormula array="1">Constants[source total]/(Table4[[#This Row],[work]]*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{21E1623C-9A47-9849-AF17-AF97CCF648FE}" name="harvesters needed" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{21E1623C-9A47-9849-AF17-AF97CCF648FE}" name="harvesters needed" dataDxfId="9">
       <calculatedColumnFormula array="1">Table4[[#This Row],[ticks to empty source]]/Constants[regen time]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{32370E60-593D-9243-A91E-042D93E97C0F}" name="roi" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[net]]/Table4[[#This Row],[cost]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2BE32D23-FBBF-384B-A584-F10E88628BE0}" name="haulers needed per harvester" dataDxfId="0">
+    <tableColumn id="17" xr3:uid="{2BE32D23-FBBF-384B-A584-F10E88628BE0}" name="haulers needed per harvester" dataDxfId="8">
       <calculatedColumnFormula>(Table4[[#This Row],[distance]]*2)*(Table4[[#This Row],[work]]*2)/Table4[[#This Row],[capacity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -434,6 +518,40 @@
     <tableColumn id="14" xr3:uid="{57ACDD30-78D8-9D45-BE15-8A4489B63A85}" name="RCL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D38B580-78BC-A349-AA5D-1E33E4D536EA}" name="Guard" displayName="Guard" ref="B1:G18" totalsRowShown="0">
+  <autoFilter ref="B1:G18" xr:uid="{ED40BD29-9079-E641-9970-6005C5085BF6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6C79D90E-3665-C841-965A-E2AC7631B832}" name="Attack"/>
+    <tableColumn id="2" xr3:uid="{6B3DACEA-B15E-6D46-BBA5-06788B8536DF}" name="Tough"/>
+    <tableColumn id="3" xr3:uid="{2B71539B-C221-394B-8188-5EE1901A7922}" name="Move" dataDxfId="7">
+      <calculatedColumnFormula>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{483C8987-4BCC-8946-8759-121E7FDF8B59}" name="Hits" dataDxfId="6">
+      <calculatedColumnFormula>100*SUM(Guard[[#This Row],[Attack]:[Move]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F0314F7C-30F0-C54F-8526-722CB077BABD}" name="Cost">
+      <calculatedColumnFormula>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A2C6A291-D9DC-8B4A-9AE9-A8F56B3A237B}" name="Winner" dataDxfId="1">
+      <calculatedColumnFormula array="1">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9FF090F-CF40-384B-A3CF-578FC014FBEA}" name="Hostile" displayName="Hostile" ref="K1:L2" totalsRowShown="0">
+  <autoFilter ref="K1:L2" xr:uid="{909CF311-30F3-634E-9814-E596F03AE704}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B384819F-4996-9C4D-B81C-818FCD7AD461}" name="attack"/>
+    <tableColumn id="2" xr3:uid="{6D486A75-6A2F-CE45-995E-F7CE632DA7A2}" name="hits"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -736,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AAE861-D8F8-3643-8601-A47EB6B09F79}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2132,4 +2250,472 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B3879A-2BBB-0544-8640-ABA0E99F3C21}">
+  <dimension ref="B1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>130</v>
+      </c>
+      <c r="G2" s="1" t="str" cm="1">
+        <f t="array" ref="G2">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>LOSE</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>180</v>
+      </c>
+      <c r="G3" s="1" t="str" cm="1">
+        <f t="array" ref="G3">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>LOSE</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>400</v>
+      </c>
+      <c r="F4">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>190</v>
+      </c>
+      <c r="G4" s="1" t="str" cm="1">
+        <f t="array" ref="G4">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>LOSE</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>240</v>
+      </c>
+      <c r="G5" s="1" t="str" cm="1">
+        <f t="array" ref="G5">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>LOSE</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>250</v>
+      </c>
+      <c r="G6" s="1" t="str" cm="1">
+        <f t="array" ref="G6">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>LOSE</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>700</v>
+      </c>
+      <c r="F7">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>300</v>
+      </c>
+      <c r="G7" s="1" t="str" cm="1">
+        <f t="array" ref="G7">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>LOSE</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>400</v>
+      </c>
+      <c r="G8" s="1" t="str" cm="1">
+        <f t="array" ref="G8">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>1400</v>
+      </c>
+      <c r="F9">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>560</v>
+      </c>
+      <c r="G9" s="1" t="str" cm="1">
+        <f t="array" ref="G9">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>800</v>
+      </c>
+      <c r="F10">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>450</v>
+      </c>
+      <c r="G10" s="1" t="str" cm="1">
+        <f t="array" ref="G10">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>510</v>
+      </c>
+      <c r="G11" s="1" t="str" cm="1">
+        <f t="array" ref="G11">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>1600</v>
+      </c>
+      <c r="F12">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>690</v>
+      </c>
+      <c r="G12" s="1" t="str" cm="1">
+        <f t="array" ref="G12">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>1800</v>
+      </c>
+      <c r="F13">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>750</v>
+      </c>
+      <c r="G13" s="1" t="str" cm="1">
+        <f t="array" ref="G13">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>810</v>
+      </c>
+      <c r="G14" s="1" t="str" cm="1">
+        <f t="array" ref="G14">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>2200</v>
+      </c>
+      <c r="F15">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>870</v>
+      </c>
+      <c r="G15" s="1" t="str" cm="1">
+        <f t="array" ref="G15">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>2400</v>
+      </c>
+      <c r="F16">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>930</v>
+      </c>
+      <c r="G16" s="1" t="str" cm="1">
+        <f t="array" ref="G16">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>810</v>
+      </c>
+      <c r="G17" s="1" t="str" cm="1">
+        <f t="array" ref="G17">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <f>Guard[[#This Row],[Attack]]+Guard[[#This Row],[Tough]]</f>
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <f>100*SUM(Guard[[#This Row],[Attack]:[Move]])</f>
+        <v>2200</v>
+      </c>
+      <c r="F18">
+        <f>80*Guard[[#This Row],[Attack]]+10*Guard[[#This Row],[Tough]]+50*Guard[[#This Row],[Move]]</f>
+        <v>870</v>
+      </c>
+      <c r="G18" s="1" t="str" cm="1">
+        <f t="array" ref="G18">IF(Guard[[#This Row],[Hits]]/Hostile[attack]&gt;Hostile[hits]/(Guard[[#This Row],[Attack]]*30), "WIN", "LOSE")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0" sqref="G5">
+    <scenario name="20/2000" locked="1" count="2" user="Microsoft Office User" comment="Created by Microsoft Office User on 9/14/2021_x000a_Modified by Microsoft Office User on 9/14/2021">
+      <inputCells r="B5" val="1"/>
+      <inputCells r="C5" val="4"/>
+    </scenario>
+  </scenarios>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"WIN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G18">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"WIN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>